--- a/baseOpenMP/results.xlsx
+++ b/baseOpenMP/results.xlsx
@@ -24,9 +24,6 @@
     <t>ILOSC IT</t>
   </si>
   <si>
-    <t>CZAS</t>
-  </si>
-  <si>
     <t>STANDART</t>
   </si>
   <si>
@@ -39,9 +36,6 @@
     <t>Atomic SUM</t>
   </si>
   <si>
-    <t>popwarny</t>
-  </si>
-  <si>
     <t>nie</t>
   </si>
   <si>
@@ -55,13 +49,19 @@
   </si>
   <si>
     <t>przyspieszenie</t>
+  </si>
+  <si>
+    <t>poprawny</t>
+  </si>
+  <si>
+    <t>CZAS [s]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -70,16 +70,56 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -87,14 +127,38 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="4">
+    <cellStyle name="Bad" xfId="2" builtinId="27"/>
+    <cellStyle name="Check Cell" xfId="3" builtinId="23"/>
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -387,144 +451,147 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="8.140625" customWidth="1"/>
     <col min="3" max="3" width="17.140625" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" customWidth="1"/>
     <col min="5" max="5" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="B2" s="2">
+        <v>100000000</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0.71899999999999997</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2">
-        <v>100000000</v>
-      </c>
-      <c r="C2">
-        <v>0.73899999999999999</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2">
+      <c r="E2" s="2">
         <f>$C$2/C2</f>
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
+    <row r="3" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1">
+        <v>100000000</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.54100000000000004</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="1">
+        <f t="shared" ref="E3:E7" si="0">$C$2/C3</f>
+        <v>1.3290203327171903</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3">
+      <c r="B4" s="1">
         <v>100000000</v>
       </c>
-      <c r="C3">
-        <v>0.57599999999999996</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="C4" s="1">
+        <v>0.50900000000000001</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="1">
+        <f t="shared" si="0"/>
+        <v>1.4125736738703338</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="2">
+        <v>100000000</v>
+      </c>
+      <c r="C5" s="2">
+        <v>10.128</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="2">
+        <f t="shared" si="0"/>
+        <v>7.0991311216429695E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E3">
-        <f t="shared" ref="E3:E7" si="0">$C$2/C3</f>
-        <v>1.2829861111111112</v>
+      <c r="B6" s="2">
+        <v>100000000</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.372</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="2">
+        <f t="shared" si="0"/>
+        <v>1.932795698924731</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4">
+    <row r="7" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="2">
         <v>100000000</v>
       </c>
-      <c r="C4">
-        <v>0.55500000000000005</v>
-      </c>
-      <c r="D4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4">
+      <c r="C7" s="2">
+        <v>0.48</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="2">
         <f t="shared" si="0"/>
-        <v>1.3315315315315315</v>
+        <v>1.4979166666666666</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5">
-        <v>100000000</v>
-      </c>
-      <c r="C5">
-        <v>6.5369999999999999</v>
-      </c>
-      <c r="D5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5">
-        <f t="shared" si="0"/>
-        <v>0.11304879914333792</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6">
-        <v>100000000</v>
-      </c>
-      <c r="C6">
-        <v>0.39500000000000002</v>
-      </c>
-      <c r="D6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6">
-        <f t="shared" si="0"/>
-        <v>1.8708860759493671</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7">
-        <v>100000000</v>
-      </c>
-      <c r="C7">
-        <v>0.498</v>
-      </c>
-      <c r="D7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7">
-        <f t="shared" si="0"/>
-        <v>1.4839357429718876</v>
-      </c>
-    </row>
+    <row r="8" spans="1:5" ht="15.75" thickTop="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
